--- a/mControl_produccion/formatos/caja 5.xlsx
+++ b/mControl_produccion/formatos/caja 5.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S.C Diaz Ordaz\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{382EEB7B-9F64-4816-BDA3-80106B379269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Transacciones" sheetId="1" r:id="rId1"/>
@@ -19,37 +25,37 @@
     <t>Afiliación</t>
   </si>
   <si>
-    <t>7773224</t>
+    <t>7543520</t>
   </si>
   <si>
     <t>Fecha de Transacción</t>
   </si>
   <si>
-    <t>02/04/2020</t>
+    <t>17/11/2021</t>
   </si>
   <si>
     <t>Hora de Transacción</t>
   </si>
   <si>
-    <t>19:26:21</t>
+    <t>08:31:50</t>
   </si>
   <si>
     <t>Número de Control</t>
   </si>
   <si>
-    <t>202004022059192681777</t>
+    <t>2021111736837560646</t>
   </si>
   <si>
     <t>Código de Autorización</t>
   </si>
   <si>
-    <t>392784</t>
+    <t>001561</t>
   </si>
   <si>
     <t>Número de Tarjeta</t>
   </si>
   <si>
-    <t>639484******1777</t>
+    <t>491566******0646</t>
   </si>
   <si>
     <t>Tipo de Transacción</t>
@@ -67,13 +73,13 @@
     <t>Monto</t>
   </si>
   <si>
-    <t>148.7</t>
+    <t>232.45</t>
   </si>
   <si>
     <t>Referencia</t>
   </si>
   <si>
-    <t>585542196364</t>
+    <t>610089593796</t>
   </si>
   <si>
     <t>Referencia 1</t>
@@ -136,13 +142,13 @@
     <t>Banco Emisor</t>
   </si>
   <si>
-    <t xml:space="preserve"> OPAM     </t>
+    <t xml:space="preserve">BANORTE   </t>
   </si>
   <si>
     <t>Marca de Tarjeta</t>
   </si>
   <si>
-    <t xml:space="preserve">CARNET    </t>
+    <t xml:space="preserve">VISA      </t>
   </si>
   <si>
     <t>Tipo de Tarjeta</t>
@@ -154,7 +160,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -193,6 +199,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -208,44 +217,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -273,14 +282,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -308,6 +334,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -319,166 +362,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -486,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:IV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
